--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809614.9843375249</v>
+        <v>807266.944448095</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5861169.424157199</v>
+        <v>5861169.424157203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673529</v>
+        <v>603248.4937673449</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>138.3038958997677</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>277.3815026099194</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>29.47502458765863</v>
+        <v>0.8335894988185202</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>347.7968126743583</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>272.5515514723289</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>35.85115782931145</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>208.9978294690248</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.4422623037126</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.8688303485817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>241.0381888737925</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.3738416199582</v>
       </c>
       <c r="H11" t="n">
-        <v>299.237997029287</v>
+        <v>299.2379970292874</v>
       </c>
       <c r="I11" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159942</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T11" t="n">
         <v>205.8971077829946</v>
@@ -1464,10 +1464,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608707</v>
       </c>
       <c r="I12" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544154</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T12" t="n">
         <v>191.6916106499414</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.2993458955565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2229002233179</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>214.5798763168847</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I14" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159942</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T14" t="n">
         <v>205.8971077829946</v>
@@ -1701,10 +1701,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608707</v>
       </c>
       <c r="I15" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544154</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T15" t="n">
         <v>191.6916106499414</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.59321615450439</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3743577398606</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>146.5581238002446</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.05094259824705</v>
+        <v>98.05094259824698</v>
       </c>
       <c r="S16" t="n">
         <v>193.3033399882067</v>
@@ -1819,16 +1819,16 @@
         <v>220.4154739963984</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2229002233179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I17" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159942</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T17" t="n">
         <v>205.8971077829946</v>
@@ -1938,10 +1938,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608707</v>
       </c>
       <c r="I18" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544155</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T18" t="n">
         <v>191.6916106499414</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.39536205729092</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4154739963984</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2229002233179</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.6008465528489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I20" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159942</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T20" t="n">
         <v>205.8971077829946</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0313412362223</v>
+        <v>251.0313412362227</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2175,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608707</v>
       </c>
       <c r="I21" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544154</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T21" t="n">
         <v>191.6916106499414</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H22" t="n">
         <v>146.5581238002446</v>
       </c>
       <c r="I22" t="n">
-        <v>41.90597679038112</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.4154739963984</v>
@@ -2296,10 +2296,10 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>168.0189849372773</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>299.237997029287</v>
       </c>
       <c r="I23" t="n">
-        <v>59.00713057159953</v>
+        <v>59.00713057159942</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.4903543749024</v>
+        <v>119.4903543749023</v>
       </c>
       <c r="T23" t="n">
         <v>205.8971077829946</v>
@@ -2412,10 +2412,10 @@
         <v>135.2413725340129</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93315268608708</v>
+        <v>91.93315268608707</v>
       </c>
       <c r="I24" t="n">
-        <v>17.0201620654416</v>
+        <v>17.02016206544154</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.636756609749</v>
+        <v>132.6367566097489</v>
       </c>
       <c r="T24" t="n">
         <v>191.6916106499414</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.37739986504668</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>69.36097520610937</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.05094259824705</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>193.3033399882067</v>
@@ -2533,16 +2533,16 @@
         <v>286.2229002233179</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.02146927219712</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70.27266146411746</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.22506181228414</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>99.45907034079579</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>69.60662835550697</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>61.60385878691205</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.9117655188069</v>
+        <v>132.9117655188013</v>
       </c>
       <c r="C37" t="n">
-        <v>119.0172230797162</v>
+        <v>120.3266064354918</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6952583550819</v>
+        <v>101.6952583550763</v>
       </c>
       <c r="E37" t="n">
-        <v>99.51374798343873</v>
+        <v>99.51374798343316</v>
       </c>
       <c r="F37" t="n">
-        <v>98.50083335980081</v>
+        <v>98.50083335979524</v>
       </c>
       <c r="G37" t="n">
-        <v>119.1055935958978</v>
+        <v>119.1055935958922</v>
       </c>
       <c r="H37" t="n">
-        <v>97.83480025119034</v>
+        <v>97.83480025118477</v>
       </c>
       <c r="I37" t="n">
-        <v>49.43220574670766</v>
+        <v>49.43220574670209</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.01193800691691</v>
+        <v>42.01193800691134</v>
       </c>
       <c r="S37" t="n">
-        <v>142.8488106683115</v>
+        <v>142.8488106683059</v>
       </c>
       <c r="T37" t="n">
-        <v>172.6287346130388</v>
+        <v>172.6287346130332</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2916235424825</v>
+        <v>239.2916235424769</v>
       </c>
       <c r="V37" t="n">
-        <v>205.2174286606976</v>
+        <v>205.217428660692</v>
       </c>
       <c r="W37" t="n">
-        <v>239.6027836734606</v>
+        <v>239.602783673455</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7894407259067</v>
+        <v>178.7894407259012</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6644386889644</v>
+        <v>170.35505533331</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,22 +3664,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.64033639962</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128505</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1121.052642832205</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>752.0901258917932</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>752.0901258917932</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>752.0901258917932</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.652482896327</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N3" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P3" t="n">
         <v>2568.06040664989</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T4" t="n">
-        <v>698.3562320976883</v>
+        <v>727.2869746116679</v>
       </c>
       <c r="U4" t="n">
-        <v>698.3562320976883</v>
+        <v>727.2869746116679</v>
       </c>
       <c r="V4" t="n">
-        <v>443.6717438918015</v>
+        <v>727.2869746116679</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>727.2869746116679</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>727.2869746116679</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1369.416431066817</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.781606227855</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.781606227855</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>691.9156934697562</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>477.6272702879189</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T7" t="n">
-        <v>477.6272702879189</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U7" t="n">
-        <v>477.6272702879189</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2226.367985632488</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>2226.367985632488</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>2226.367985632488</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>2226.367985632488</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>2226.367985632488</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>2469.840903686824</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>2226.367985632488</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>2226.367985632488</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>2226.367985632488</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>2226.367985632488</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>2226.367985632488</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>458.142805245303</v>
       </c>
       <c r="H11" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854164</v>
       </c>
       <c r="I11" t="n">
         <v>96.27903999188166</v>
       </c>
       <c r="J11" t="n">
-        <v>256.6243923488478</v>
+        <v>247.1691212138979</v>
       </c>
       <c r="K11" t="n">
-        <v>854.4119865736141</v>
+        <v>844.9567154386646</v>
       </c>
       <c r="L11" t="n">
-        <v>1648.296984746616</v>
+        <v>1638.841713611667</v>
       </c>
       <c r="M11" t="n">
-        <v>2548.253555949956</v>
+        <v>2538.798284815008</v>
       </c>
       <c r="N11" t="n">
-        <v>3448.140367805181</v>
+        <v>3438.685096670233</v>
       </c>
       <c r="O11" t="n">
-        <v>4252.690328623727</v>
+        <v>4243.235057488779</v>
       </c>
       <c r="P11" t="n">
-        <v>4583.10000226385</v>
+        <v>4573.644731128902</v>
       </c>
       <c r="Q11" t="n">
         <v>4783.051160322423</v>
@@ -5103,13 +5103,13 @@
         <v>648.712353258878</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534225</v>
       </c>
       <c r="F12" t="n">
         <v>342.9403402803075</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H12" t="n">
         <v>113.4711228862671</v>
@@ -5118,19 +5118,19 @@
         <v>96.27903999188166</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3302917101807</v>
+        <v>292.1604166971857</v>
       </c>
       <c r="K12" t="n">
-        <v>366.9230224985479</v>
+        <v>491.7531474855531</v>
       </c>
       <c r="L12" t="n">
-        <v>681.622621471507</v>
+        <v>806.4527464585126</v>
       </c>
       <c r="M12" t="n">
-        <v>1443.945523581152</v>
+        <v>1443.945523581151</v>
       </c>
       <c r="N12" t="n">
-        <v>1855.182683106049</v>
+        <v>1855.182683106048</v>
       </c>
       <c r="O12" t="n">
         <v>2209.164547172219</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.6012681084896</v>
+        <v>708.056772889228</v>
       </c>
       <c r="C13" t="n">
-        <v>533.6012681084896</v>
+        <v>539.1205899613211</v>
       </c>
       <c r="D13" t="n">
-        <v>533.6012681084896</v>
+        <v>539.1205899613211</v>
       </c>
       <c r="E13" t="n">
-        <v>411.0766762947962</v>
+        <v>391.207496378928</v>
       </c>
       <c r="F13" t="n">
-        <v>264.1867287968859</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="G13" t="n">
-        <v>96.27903999188166</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="H13" t="n">
         <v>96.27903999188166</v>
@@ -5200,49 +5200,49 @@
         <v>127.2068360096031</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8675422238316</v>
+        <v>307.8675422238317</v>
       </c>
       <c r="L13" t="n">
-        <v>594.5774814768324</v>
+        <v>594.5774814768326</v>
       </c>
       <c r="M13" t="n">
-        <v>907.2620358138198</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q13" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R13" t="n">
-        <v>1758.019821576723</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S13" t="n">
-        <v>1562.763922598737</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.122029673082</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="U13" t="n">
-        <v>1051.007989043468</v>
+        <v>1468.905780947111</v>
       </c>
       <c r="V13" t="n">
-        <v>1051.007989043468</v>
+        <v>1214.221292741224</v>
       </c>
       <c r="W13" t="n">
-        <v>761.590819006507</v>
+        <v>924.804122704263</v>
       </c>
       <c r="X13" t="n">
-        <v>533.6012681084896</v>
+        <v>708.056772889228</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.6012681084896</v>
+        <v>708.056772889228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129767</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189356</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.446095582607</v>
+        <v>1670.446095582606</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.657842984363</v>
+        <v>1284.657842984362</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947546</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1428052453025</v>
+        <v>458.142805245302</v>
       </c>
       <c r="H14" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854164</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J14" t="n">
-        <v>256.6243923488487</v>
+        <v>247.1691212138979</v>
       </c>
       <c r="K14" t="n">
-        <v>854.411986573615</v>
+        <v>844.9567154386646</v>
       </c>
       <c r="L14" t="n">
-        <v>1648.296984746617</v>
+        <v>1638.841713611667</v>
       </c>
       <c r="M14" t="n">
-        <v>2548.253555949957</v>
+        <v>2538.798284815008</v>
       </c>
       <c r="N14" t="n">
-        <v>3448.140367805182</v>
+        <v>3438.685096670233</v>
       </c>
       <c r="O14" t="n">
-        <v>4252.690328623728</v>
+        <v>4243.235057488779</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.100002263851</v>
+        <v>4583.100002263849</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.051160322424</v>
+        <v>4783.051160322423</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.951999594084</v>
+        <v>4813.951999594083</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T14" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394186</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044466</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700895</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430781</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.274151193889</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>648.712353258878</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4748982534226</v>
+        <v>489.4748982534225</v>
       </c>
       <c r="F15" t="n">
         <v>342.9403402803075</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H15" t="n">
         <v>113.4711228862671</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J15" t="n">
-        <v>292.1604166971855</v>
+        <v>292.1604166971857</v>
       </c>
       <c r="K15" t="n">
-        <v>534.672952997134</v>
+        <v>491.7531474855531</v>
       </c>
       <c r="L15" t="n">
-        <v>849.372551970093</v>
+        <v>806.4527464585126</v>
       </c>
       <c r="M15" t="n">
-        <v>1235.969008722662</v>
+        <v>1193.049203211082</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.206168247559</v>
+        <v>1604.286362735979</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.188032313729</v>
+        <v>1958.26822680215</v>
       </c>
       <c r="P15" t="n">
-        <v>2265.956619575952</v>
+        <v>2473.933134434442</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.004726840545</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.6336798474973</v>
+        <v>287.3409995421332</v>
       </c>
       <c r="C16" t="n">
-        <v>515.6336798474973</v>
+        <v>287.3409995421332</v>
       </c>
       <c r="D16" t="n">
-        <v>515.6336798474973</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2252376860219</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="F16" t="n">
-        <v>412.2252376860219</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="G16" t="n">
-        <v>244.3175488810177</v>
+        <v>244.3175488810176</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27903999188167</v>
+        <v>96.27903999188166</v>
       </c>
       <c r="J16" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8675422238316</v>
+        <v>307.8675422238318</v>
       </c>
       <c r="L16" t="n">
-        <v>594.5774814768324</v>
+        <v>594.5774814768326</v>
       </c>
       <c r="M16" t="n">
-        <v>907.2620358138197</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214385</v>
       </c>
       <c r="P16" t="n">
         <v>1697.221745862617</v>
@@ -5458,7 +5458,7 @@
         <v>1758.019821576725</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.978465416879</v>
+        <v>1658.97846541688</v>
       </c>
       <c r="S16" t="n">
         <v>1463.722566438893</v>
@@ -5467,19 +5467,19 @@
         <v>1241.080673513238</v>
       </c>
       <c r="U16" t="n">
-        <v>951.9666328836237</v>
+        <v>1241.080673513238</v>
       </c>
       <c r="V16" t="n">
-        <v>697.2821446777371</v>
+        <v>986.3961853073511</v>
       </c>
       <c r="W16" t="n">
-        <v>697.2821446777371</v>
+        <v>696.9790152703904</v>
       </c>
       <c r="X16" t="n">
-        <v>697.2821446777371</v>
+        <v>468.989464372373</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.2821446777371</v>
+        <v>468.989464372373</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.674311129769</v>
+        <v>2397.674311129768</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D17" t="n">
         <v>1670.446095582607</v>
@@ -5501,64 +5501,64 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F17" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947551</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1428052453025</v>
+        <v>458.1428052453023</v>
       </c>
       <c r="H17" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854165</v>
       </c>
       <c r="I17" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1691212138977</v>
+        <v>414.5747702342509</v>
       </c>
       <c r="K17" t="n">
-        <v>524.0527569932109</v>
+        <v>789.35273089936</v>
       </c>
       <c r="L17" t="n">
-        <v>1317.937755166212</v>
+        <v>1583.237729072362</v>
       </c>
       <c r="M17" t="n">
-        <v>2217.894326369553</v>
+        <v>2483.194300275703</v>
       </c>
       <c r="N17" t="n">
-        <v>3117.781138224778</v>
+        <v>3383.081112130928</v>
       </c>
       <c r="O17" t="n">
-        <v>3922.331099043323</v>
+        <v>4187.631072949474</v>
       </c>
       <c r="P17" t="n">
-        <v>4571.321493773214</v>
+        <v>4518.040746589598</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R17" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S17" t="n">
-        <v>4693.254671942667</v>
+        <v>4693.254671942665</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.277795394188</v>
+        <v>4485.277795394187</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.710784044468</v>
+        <v>4231.710784044467</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.647896700897</v>
+        <v>3900.647896700896</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.879241430783</v>
+        <v>3547.879241430782</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.413483169703</v>
+        <v>3174.413483169702</v>
       </c>
       <c r="Y17" t="n">
-        <v>2784.274151193891</v>
+        <v>2784.27415119389</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G18" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H18" t="n">
         <v>113.4711228862671</v>
@@ -5592,28 +5592,28 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J18" t="n">
-        <v>292.1604166971855</v>
+        <v>292.1604166971857</v>
       </c>
       <c r="K18" t="n">
-        <v>504.6170168029284</v>
+        <v>534.6729529971315</v>
       </c>
       <c r="L18" t="n">
-        <v>819.3166157758875</v>
+        <v>849.3725519700909</v>
       </c>
       <c r="M18" t="n">
-        <v>1205.913072528456</v>
+        <v>1235.96900872266</v>
       </c>
       <c r="N18" t="n">
-        <v>1617.150232053353</v>
+        <v>1647.206168247558</v>
       </c>
       <c r="O18" t="n">
-        <v>1971.132096119523</v>
+        <v>2001.188032313728</v>
       </c>
       <c r="P18" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575951</v>
       </c>
       <c r="Q18" t="n">
-        <v>2570.94879064634</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R18" t="n">
         <v>2601.004726840545</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.0745141963221</v>
+        <v>280.7660936847292</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1383312684151</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1383312684151</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="E19" t="n">
-        <v>412.225237686022</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="F19" t="n">
-        <v>412.225237686022</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="G19" t="n">
-        <v>244.3175488810177</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27903999188167</v>
+        <v>111.8299107568223</v>
       </c>
       <c r="I19" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J19" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8675422238315</v>
+        <v>307.8675422238319</v>
       </c>
       <c r="L19" t="n">
-        <v>594.5774814768323</v>
+        <v>594.5774814768328</v>
       </c>
       <c r="M19" t="n">
-        <v>907.2620358138199</v>
+        <v>907.2620358138205</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.94626675487</v>
+        <v>1217.946266754871</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.897144214383</v>
+        <v>1488.897144214384</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R19" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S19" t="n">
-        <v>1758.019821576724</v>
+        <v>1562.763922598738</v>
       </c>
       <c r="T19" t="n">
-        <v>1535.377928651069</v>
+        <v>1562.763922598738</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.263888021455</v>
+        <v>1273.649881969124</v>
       </c>
       <c r="V19" t="n">
-        <v>1246.263888021455</v>
+        <v>1018.965393763237</v>
       </c>
       <c r="W19" t="n">
-        <v>1246.263888021455</v>
+        <v>729.5482237262767</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.515558170092</v>
+        <v>501.5586728282593</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.7229790265618</v>
+        <v>280.7660936847292</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.674311129767</v>
+        <v>2397.674311129769</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.711794189356</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.446095582606</v>
+        <v>1670.446095582607</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.657842984362</v>
+        <v>1284.657842984363</v>
       </c>
       <c r="F20" t="n">
-        <v>873.6719381947541</v>
+        <v>873.6719381947551</v>
       </c>
       <c r="G20" t="n">
-        <v>458.142805245302</v>
+        <v>458.1428052453023</v>
       </c>
       <c r="H20" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854164</v>
       </c>
       <c r="I20" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1691212138977</v>
+        <v>414.5747702342509</v>
       </c>
       <c r="K20" t="n">
-        <v>524.0527569932109</v>
+        <v>691.4584060135646</v>
       </c>
       <c r="L20" t="n">
-        <v>1317.937755166212</v>
+        <v>1485.343404186567</v>
       </c>
       <c r="M20" t="n">
-        <v>2217.894326369553</v>
+        <v>2385.299975389908</v>
       </c>
       <c r="N20" t="n">
-        <v>3117.781138224778</v>
+        <v>3285.186787245133</v>
       </c>
       <c r="O20" t="n">
-        <v>3922.331099043323</v>
+        <v>4089.736748063679</v>
       </c>
       <c r="P20" t="n">
-        <v>4571.321493773214</v>
+        <v>4420.146421703803</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.051160322424</v>
+        <v>4717.991904648172</v>
       </c>
       <c r="R20" t="n">
         <v>4813.951999594084</v>
       </c>
       <c r="S20" t="n">
-        <v>4693.254671942665</v>
+        <v>4693.254671942667</v>
       </c>
       <c r="T20" t="n">
-        <v>4485.277795394186</v>
+        <v>4485.277795394188</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.710784044466</v>
+        <v>4231.710784044468</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.647896700895</v>
+        <v>3900.647896700897</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.879241430781</v>
+        <v>3547.879241430783</v>
       </c>
       <c r="X20" t="n">
-        <v>3174.413483169701</v>
+        <v>3174.413483169703</v>
       </c>
       <c r="Y20" t="n">
-        <v>2784.274151193889</v>
+        <v>2784.274151193891</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G21" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H21" t="n">
         <v>113.4711228862671</v>
@@ -5829,19 +5829,19 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J21" t="n">
-        <v>292.1604166971855</v>
+        <v>292.1604166971857</v>
       </c>
       <c r="K21" t="n">
-        <v>491.7531474855527</v>
+        <v>504.6170168029259</v>
       </c>
       <c r="L21" t="n">
-        <v>806.4527464585117</v>
+        <v>819.3166157758853</v>
       </c>
       <c r="M21" t="n">
-        <v>1193.049203211081</v>
+        <v>1205.913072528454</v>
       </c>
       <c r="N21" t="n">
-        <v>1604.286362735977</v>
+        <v>1617.150232053352</v>
       </c>
       <c r="O21" t="n">
         <v>1971.132096119523</v>
@@ -5850,7 +5850,7 @@
         <v>2235.900683381746</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.94879064634</v>
+        <v>2570.948790646339</v>
       </c>
       <c r="R21" t="n">
         <v>2601.004726840545</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.5599119486443</v>
+        <v>412.225237686022</v>
       </c>
       <c r="C22" t="n">
-        <v>434.5599119486443</v>
+        <v>412.225237686022</v>
       </c>
       <c r="D22" t="n">
-        <v>434.5599119486443</v>
+        <v>412.225237686022</v>
       </c>
       <c r="E22" t="n">
-        <v>286.6468183662512</v>
+        <v>412.225237686022</v>
       </c>
       <c r="F22" t="n">
-        <v>286.6468183662512</v>
+        <v>412.225237686022</v>
       </c>
       <c r="G22" t="n">
-        <v>286.6468183662512</v>
+        <v>244.3175488810177</v>
       </c>
       <c r="H22" t="n">
-        <v>138.6083094771151</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="I22" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J22" t="n">
-        <v>127.2068360096032</v>
+        <v>127.2068360096031</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8675422238317</v>
+        <v>307.8675422238318</v>
       </c>
       <c r="L22" t="n">
-        <v>594.5774814768324</v>
+        <v>594.5774814768326</v>
       </c>
       <c r="M22" t="n">
-        <v>907.2620358138201</v>
+        <v>907.2620358138206</v>
       </c>
       <c r="N22" t="n">
         <v>1217.946266754871</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214385</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q22" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.978465416878</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.722566438891</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="T22" t="n">
-        <v>1241.080673513236</v>
+        <v>1535.37792865107</v>
       </c>
       <c r="U22" t="n">
-        <v>951.9666328836222</v>
+        <v>1246.263888021456</v>
       </c>
       <c r="V22" t="n">
-        <v>951.9666328836222</v>
+        <v>991.5793998155692</v>
       </c>
       <c r="W22" t="n">
-        <v>662.5494628466616</v>
+        <v>821.863253414279</v>
       </c>
       <c r="X22" t="n">
-        <v>434.5599119486443</v>
+        <v>593.8737025162617</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.5599119486443</v>
+        <v>593.8737025162617</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2397.674311129769</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.711794189358</v>
+        <v>2028.711794189357</v>
       </c>
       <c r="D23" t="n">
         <v>1670.446095582607</v>
@@ -5975,37 +5975,37 @@
         <v>1284.657842984363</v>
       </c>
       <c r="F23" t="n">
-        <v>873.6719381947553</v>
+        <v>873.6719381947551</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1428052453025</v>
+        <v>458.1428052453023</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8822021854166</v>
+        <v>155.8822021854164</v>
       </c>
       <c r="I23" t="n">
         <v>96.27903999188167</v>
       </c>
       <c r="J23" t="n">
-        <v>414.5747702342507</v>
+        <v>414.5747702342509</v>
       </c>
       <c r="K23" t="n">
-        <v>789.3527308993628</v>
+        <v>789.35273089936</v>
       </c>
       <c r="L23" t="n">
-        <v>1583.237729072364</v>
+        <v>1583.237729072362</v>
       </c>
       <c r="M23" t="n">
-        <v>2483.194300275705</v>
+        <v>2483.194300275703</v>
       </c>
       <c r="N23" t="n">
-        <v>3383.08111213093</v>
+        <v>3383.081112130928</v>
       </c>
       <c r="O23" t="n">
-        <v>4187.631072949475</v>
+        <v>4187.631072949474</v>
       </c>
       <c r="P23" t="n">
-        <v>4518.040746589599</v>
+        <v>4518.040746589598</v>
       </c>
       <c r="Q23" t="n">
         <v>4717.991904648172</v>
@@ -6057,7 +6057,7 @@
         <v>342.9403402803075</v>
       </c>
       <c r="G24" t="n">
-        <v>206.3328932762541</v>
+        <v>206.332893276254</v>
       </c>
       <c r="H24" t="n">
         <v>113.4711228862671</v>
@@ -6066,28 +6066,28 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J24" t="n">
-        <v>292.1604166971855</v>
+        <v>292.1604166971857</v>
       </c>
       <c r="K24" t="n">
-        <v>491.7531474855527</v>
+        <v>534.6729529971315</v>
       </c>
       <c r="L24" t="n">
-        <v>819.3166157758875</v>
+        <v>849.3725519700909</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.913072528456</v>
+        <v>1235.96900872266</v>
       </c>
       <c r="N24" t="n">
-        <v>1617.150232053353</v>
+        <v>1647.206168247558</v>
       </c>
       <c r="O24" t="n">
-        <v>1971.132096119523</v>
+        <v>2001.188032313728</v>
       </c>
       <c r="P24" t="n">
-        <v>2235.900683381746</v>
+        <v>2265.956619575951</v>
       </c>
       <c r="Q24" t="n">
-        <v>2570.94879064634</v>
+        <v>2601.004726840545</v>
       </c>
       <c r="R24" t="n">
         <v>2601.004726840545</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>503.1845028420749</v>
+        <v>278.9167799026048</v>
       </c>
       <c r="C25" t="n">
-        <v>334.2483199141681</v>
+        <v>244.1921335742748</v>
       </c>
       <c r="D25" t="n">
-        <v>334.2483199141681</v>
+        <v>244.1921335742748</v>
       </c>
       <c r="E25" t="n">
-        <v>334.2483199141681</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="F25" t="n">
-        <v>334.2483199141681</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3406311091639</v>
+        <v>96.27903999188167</v>
       </c>
       <c r="H25" t="n">
         <v>96.27903999188167</v>
@@ -6145,52 +6145,52 @@
         <v>96.27903999188167</v>
       </c>
       <c r="J25" t="n">
-        <v>127.2068360096031</v>
+        <v>127.2068360096032</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8675422238316</v>
+        <v>307.8675422238319</v>
       </c>
       <c r="L25" t="n">
-        <v>594.5774814768323</v>
+        <v>594.5774814768329</v>
       </c>
       <c r="M25" t="n">
-        <v>907.2620358138201</v>
+        <v>907.2620358138209</v>
       </c>
       <c r="N25" t="n">
         <v>1217.946266754871</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.897144214384</v>
+        <v>1488.897144214385</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.221745862616</v>
+        <v>1697.221745862617</v>
       </c>
       <c r="Q25" t="n">
-        <v>1758.019821576724</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="R25" t="n">
-        <v>1658.978465416878</v>
+        <v>1758.019821576725</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.722566438892</v>
+        <v>1562.763922598738</v>
       </c>
       <c r="T25" t="n">
-        <v>1241.080673513237</v>
+        <v>1340.122029673083</v>
       </c>
       <c r="U25" t="n">
-        <v>951.9666328836224</v>
+        <v>1051.007989043469</v>
       </c>
       <c r="V25" t="n">
-        <v>951.9666328836224</v>
+        <v>796.3235008375826</v>
       </c>
       <c r="W25" t="n">
-        <v>951.9666328836224</v>
+        <v>506.906330800622</v>
       </c>
       <c r="X25" t="n">
-        <v>723.9770819856051</v>
+        <v>278.9167799026048</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.1845028420749</v>
+        <v>278.9167799026048</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>300.0484256555948</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C28" t="n">
-        <v>300.0484256555948</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6418,16 +6418,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208124</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838518</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858345</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858345</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6467,22 +6467,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,22 +6491,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858347</v>
+        <v>877.1197344942215</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431233</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1352.596801843639</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1097.912313637752</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858347</v>
+        <v>877.1197344942215</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>390.3640755286978</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286978</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286978</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
         <v>242.4509819463048</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1894.117346117923</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1894.117346117923</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1672.350730687449</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1383.247863813093</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1128.563375607206</v>
+        <v>999.103611420813</v>
       </c>
       <c r="W34" t="n">
-        <v>839.1462055702452</v>
+        <v>709.6864413838523</v>
       </c>
       <c r="X34" t="n">
-        <v>611.1566546722279</v>
+        <v>481.6968904858349</v>
       </c>
       <c r="Y34" t="n">
-        <v>390.3640755286978</v>
+        <v>481.6968904858349</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6962,25 +6962,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>787.5808954300445</v>
+        <v>788.903504880289</v>
       </c>
       <c r="C37" t="n">
-        <v>667.3614781778058</v>
+        <v>667.361478177772</v>
       </c>
       <c r="D37" t="n">
-        <v>564.6389949908544</v>
+        <v>564.6389949908262</v>
       </c>
       <c r="E37" t="n">
-        <v>464.1200576338455</v>
+        <v>464.120057633823</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6242663613194</v>
+        <v>364.6242663613025</v>
       </c>
       <c r="G37" t="n">
-        <v>244.3155859614227</v>
+        <v>244.3155859614114</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4925554046648</v>
+        <v>145.4925554046592</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1346794118291</v>
+        <v>187.1346794118346</v>
       </c>
       <c r="K37" t="n">
-        <v>437.5728748772046</v>
+        <v>437.5728748772157</v>
       </c>
       <c r="L37" t="n">
-        <v>800.5836858421999</v>
+        <v>800.5836858422164</v>
       </c>
       <c r="M37" t="n">
-        <v>1191.191743958248</v>
+        <v>1191.19174395827</v>
       </c>
       <c r="N37" t="n">
-        <v>1579.051133180612</v>
+        <v>1579.051133180639</v>
       </c>
       <c r="O37" t="n">
-        <v>1924.831744617524</v>
+        <v>1924.831744617557</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.890257567683</v>
+        <v>2203.890257567721</v>
       </c>
       <c r="Q37" t="n">
-        <v>2327.951566236697</v>
+        <v>2327.95156623674</v>
       </c>
       <c r="R37" t="n">
-        <v>2285.515265219609</v>
+        <v>2285.515265219658</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.22353727182</v>
+        <v>2141.223537271875</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.85107806673</v>
+        <v>1966.851078066791</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.142367417758</v>
+        <v>1725.142367417824</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.852035437255</v>
+        <v>1517.852035437327</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.829021625679</v>
+        <v>1275.829021625756</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.233626953046</v>
+        <v>1095.233626953129</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.8352040348998</v>
+        <v>923.1578134851388</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490202</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.746804049923</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7415,22 +7415,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7597,22 +7597,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142067</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282341</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,19 +7825,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.550778924192059</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.550778924189018</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>379.5216619768451</v>
+        <v>253.4306266364333</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202233</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.55077892419294</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>9.550778924188592</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.35333890058715</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.4306266364333</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.16213830202244</v>
+        <v>15.16213830202233</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>98.88315645029854</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.89748332387558</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>12.99380739128864</v>
+        <v>43.35333890058422</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202236</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.89748332387558</v>
+        <v>98.88315645029806</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>12.9938073912856</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>12.99380739128861</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>98.88315645030184</v>
+        <v>98.88315645029849</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>43.35333890058416</v>
       </c>
       <c r="L24" t="n">
-        <v>12.99380739128867</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>15.16213830202233</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182143</v>
       </c>
       <c r="E13" t="n">
-        <v>25.13461675101271</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5581238002446</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>102.451279504558</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.05094259824705</v>
+        <v>98.05094259824698</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>11.1297790721525</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.022256863708</v>
       </c>
       <c r="E16" t="n">
-        <v>44.05960490670852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2229002233179</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I19" t="n">
-        <v>102.451279504558</v>
+        <v>87.05591744726712</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.05094259824705</v>
+        <v>98.05094259824699</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3033399882067</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4154739963984</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.1088088361882</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2286119169542</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>60.54530271417684</v>
+        <v>102.451279504558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.05094259824698</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3033399882067</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>118.5040133993137</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>132.8694212335812</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2286119169542</v>
       </c>
       <c r="H25" t="n">
-        <v>77.19714859413534</v>
+        <v>146.5581238002446</v>
       </c>
       <c r="I25" t="n">
         <v>102.451279504558</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.05094259824698</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>91.59400374601523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>95.75314679491076</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>80.02175928634369</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.7527678648171</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>110.2253518264303</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.32829388313528</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.309383355781193</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.30938335564879</v>
       </c>
     </row>
     <row r="38">
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1043618.509219191</v>
+        <v>1043618.509219195</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
+        <v>394457.5465285966</v>
+      </c>
+      <c r="F2" t="n">
+        <v>394457.5465285966</v>
+      </c>
+      <c r="G2" t="n">
         <v>394457.5465285967</v>
       </c>
-      <c r="F2" t="n">
-        <v>394457.5465285968</v>
-      </c>
-      <c r="G2" t="n">
-        <v>394457.5465285968</v>
-      </c>
       <c r="H2" t="n">
-        <v>394457.5465285968</v>
+        <v>394457.5465285967</v>
       </c>
       <c r="I2" t="n">
-        <v>394457.5465285968</v>
+        <v>394457.5465285967</v>
       </c>
       <c r="J2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="K2" t="n">
         <v>397081.7868869829</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>397081.7868869831</v>
       </c>
-      <c r="L2" t="n">
-        <v>397081.786886983</v>
-      </c>
       <c r="M2" t="n">
-        <v>410505.1723318722</v>
+        <v>410505.1723318739</v>
       </c>
       <c r="N2" t="n">
+        <v>410520.8849321418</v>
+      </c>
+      <c r="O2" t="n">
+        <v>410520.8849321417</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321415</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321415</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321414</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>639703.3804282958</v>
+        <v>639703.3804282965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257274.6877527452</v>
+        <v>257274.6877527446</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169415.109737689</v>
+        <v>169415.1097376935</v>
       </c>
       <c r="N3" t="n">
-        <v>43.93756436970762</v>
+        <v>43.93756436522835</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>26074.75651488303</v>
+        <v>26074.75651488293</v>
       </c>
       <c r="F4" t="n">
-        <v>26074.75651488305</v>
+        <v>26074.75651488297</v>
       </c>
       <c r="G4" t="n">
-        <v>26074.75651488303</v>
+        <v>26074.75651488299</v>
       </c>
       <c r="H4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.75651488297</v>
       </c>
       <c r="I4" t="n">
-        <v>26074.75651488304</v>
+        <v>26074.75651488299</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>33587.58123699733</v>
+        <v>33587.58123699918</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>94477.49060940044</v>
+        <v>94477.49060940045</v>
       </c>
       <c r="F5" t="n">
         <v>94477.49060940045</v>
       </c>
       <c r="G5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="H5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="I5" t="n">
-        <v>94477.49060940045</v>
+        <v>94477.49060940047</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100328.0537802284</v>
+        <v>100328.0537802288</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445654.7592029404</v>
+        <v>-445654.7592029403</v>
       </c>
       <c r="C6" t="n">
-        <v>144313.1200116042</v>
+        <v>144313.120011604</v>
       </c>
       <c r="D6" t="n">
         <v>144313.1200116041</v>
       </c>
       <c r="E6" t="n">
-        <v>-365798.0810239826</v>
+        <v>-365878.397716001</v>
       </c>
       <c r="F6" t="n">
-        <v>273905.2994043133</v>
+        <v>273824.9827122955</v>
       </c>
       <c r="G6" t="n">
-        <v>273905.2994043134</v>
+        <v>273824.9827122956</v>
       </c>
       <c r="H6" t="n">
-        <v>273905.2994043134</v>
+        <v>273824.9827122956</v>
       </c>
       <c r="I6" t="n">
-        <v>273905.2994043134</v>
+        <v>273824.9827122955</v>
       </c>
       <c r="J6" t="n">
-        <v>25275.08856133414</v>
+        <v>25207.89307110899</v>
       </c>
       <c r="K6" t="n">
-        <v>282549.7763140795</v>
+        <v>282482.5808238534</v>
       </c>
       <c r="L6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238537</v>
       </c>
       <c r="M6" t="n">
-        <v>107174.4275769575</v>
+        <v>107174.349013951</v>
       </c>
       <c r="N6" t="n">
-        <v>276538.6230562607</v>
+        <v>276538.6230562655</v>
       </c>
       <c r="O6" t="n">
-        <v>276582.5606206303</v>
+        <v>276582.5606206306</v>
       </c>
       <c r="P6" t="n">
-        <v>276582.5606206303</v>
+        <v>276582.5606206304</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252476</v>
       </c>
       <c r="F3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252476</v>
       </c>
       <c r="G3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252475</v>
       </c>
       <c r="H3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252476</v>
       </c>
       <c r="I3" t="n">
-        <v>977.3128539252468</v>
+        <v>977.3128539252476</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1203.487999898521</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05492195546213452</v>
+        <v>0.05492195545653544</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>599.5691897081601</v>
+        <v>599.569189708161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.4638466680515</v>
+        <v>112.4638466680507</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439652</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439652</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2007271439651</v>
+        <v>529.2007271439652</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>244.4299457637129</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>129.4945431317921</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>195.5600808704257</v>
+        <v>224.2015159592657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17.47607909664924</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>76.68941724508414</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>110.8140341508464</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.147709480994109</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>64.97345050525891</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.3691083074719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>45.24368536818523</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.523943392413269e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="C37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="D37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="E37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="F37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="G37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="I37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="J37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="K37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="L37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="M37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="N37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="O37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="P37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="R37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="S37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="T37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="U37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="V37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="W37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="X37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.92021466313044</v>
+        <v>46.92021466313601</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176872</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648015</v>
       </c>
       <c r="I11" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988065</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832683</v>
       </c>
       <c r="K11" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261054</v>
       </c>
       <c r="L11" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781247</v>
       </c>
       <c r="M11" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539764</v>
       </c>
       <c r="N11" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161477</v>
       </c>
       <c r="O11" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584827</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463036</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002817</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754044</v>
       </c>
       <c r="S11" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134306</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141497</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H12" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040939</v>
       </c>
       <c r="I12" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597354</v>
       </c>
       <c r="J12" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962619</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4502579525077</v>
+        <v>339.450257952508</v>
       </c>
       <c r="L12" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808433</v>
       </c>
       <c r="M12" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892598</v>
       </c>
       <c r="N12" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105024</v>
       </c>
       <c r="O12" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951218</v>
       </c>
       <c r="P12" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509192</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305699</v>
       </c>
       <c r="R12" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619416</v>
       </c>
       <c r="S12" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408888</v>
       </c>
       <c r="T12" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880209</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630068</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504545</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270032</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143713</v>
       </c>
       <c r="K13" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L13" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851393</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169351</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6902831167818</v>
+        <v>269.690283116782</v>
       </c>
       <c r="O13" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955697</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888769</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427124</v>
       </c>
       <c r="R13" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892251</v>
       </c>
       <c r="S13" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876555</v>
       </c>
       <c r="T13" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883052</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297528</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176872</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648015</v>
       </c>
       <c r="I14" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988065</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832683</v>
       </c>
       <c r="K14" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261054</v>
       </c>
       <c r="L14" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781247</v>
       </c>
       <c r="M14" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539764</v>
       </c>
       <c r="N14" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161477</v>
       </c>
       <c r="O14" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584827</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463036</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002817</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754044</v>
       </c>
       <c r="S14" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134306</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141497</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H15" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040939</v>
       </c>
       <c r="I15" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597354</v>
       </c>
       <c r="J15" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962619</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4502579525077</v>
+        <v>339.450257952508</v>
       </c>
       <c r="L15" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808433</v>
       </c>
       <c r="M15" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892598</v>
       </c>
       <c r="N15" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105024</v>
       </c>
       <c r="O15" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951218</v>
       </c>
       <c r="P15" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509192</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305699</v>
       </c>
       <c r="R15" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619416</v>
       </c>
       <c r="S15" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408888</v>
       </c>
       <c r="T15" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880209</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630068</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504545</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270032</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143713</v>
       </c>
       <c r="K16" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L16" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851393</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169351</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6902831167818</v>
+        <v>269.690283116782</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955697</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888769</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427124</v>
       </c>
       <c r="R16" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892251</v>
       </c>
       <c r="S16" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876555</v>
       </c>
       <c r="T16" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883052</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297528</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176872</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648015</v>
       </c>
       <c r="I17" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988065</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832683</v>
       </c>
       <c r="K17" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261054</v>
       </c>
       <c r="L17" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781247</v>
       </c>
       <c r="M17" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539763</v>
       </c>
       <c r="N17" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161477</v>
       </c>
       <c r="O17" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584827</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463035</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002817</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754044</v>
       </c>
       <c r="S17" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134305</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141496</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H18" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040939</v>
       </c>
       <c r="I18" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597352</v>
       </c>
       <c r="J18" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962619</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4502579525077</v>
+        <v>339.4502579525079</v>
       </c>
       <c r="L18" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808432</v>
       </c>
       <c r="M18" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892598</v>
       </c>
       <c r="N18" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105024</v>
       </c>
       <c r="O18" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951217</v>
       </c>
       <c r="P18" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509191</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305699</v>
       </c>
       <c r="R18" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619416</v>
       </c>
       <c r="S18" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408887</v>
       </c>
       <c r="T18" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880209</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630068</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504544</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270032</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143713</v>
       </c>
       <c r="K19" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L19" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851393</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2591072169349</v>
+        <v>276.259107216935</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6902831167818</v>
+        <v>269.690283116782</v>
       </c>
       <c r="O19" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955697</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888768</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427124</v>
       </c>
       <c r="R19" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892249</v>
       </c>
       <c r="S19" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876555</v>
       </c>
       <c r="T19" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883051</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297526</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176872</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648015</v>
       </c>
       <c r="I20" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988065</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832683</v>
       </c>
       <c r="K20" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261054</v>
       </c>
       <c r="L20" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781247</v>
       </c>
       <c r="M20" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539764</v>
       </c>
       <c r="N20" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161477</v>
       </c>
       <c r="O20" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584827</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463036</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002817</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754044</v>
       </c>
       <c r="S20" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134306</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141497</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H21" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040939</v>
       </c>
       <c r="I21" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597354</v>
       </c>
       <c r="J21" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962619</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4502579525077</v>
+        <v>339.450257952508</v>
       </c>
       <c r="L21" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808433</v>
       </c>
       <c r="M21" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892598</v>
       </c>
       <c r="N21" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105024</v>
       </c>
       <c r="O21" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951218</v>
       </c>
       <c r="P21" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509192</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305699</v>
       </c>
       <c r="R21" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619416</v>
       </c>
       <c r="S21" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408888</v>
       </c>
       <c r="T21" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880209</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630068</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504545</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270032</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143713</v>
       </c>
       <c r="K22" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L22" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851393</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169351</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6902831167818</v>
+        <v>269.690283116782</v>
       </c>
       <c r="O22" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955697</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888769</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427124</v>
       </c>
       <c r="R22" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892251</v>
       </c>
       <c r="S22" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876555</v>
       </c>
       <c r="T22" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883052</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297528</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928895895176869</v>
+        <v>3.928895895176872</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23680508648012</v>
+        <v>40.23680508648015</v>
       </c>
       <c r="I23" t="n">
-        <v>151.4687589988064</v>
+        <v>151.4687589988065</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4601279832681</v>
+        <v>333.4601279832683</v>
       </c>
       <c r="K23" t="n">
-        <v>499.770291226105</v>
+        <v>499.7702912261054</v>
       </c>
       <c r="L23" t="n">
-        <v>620.0092389781242</v>
+        <v>620.0092389781247</v>
       </c>
       <c r="M23" t="n">
-        <v>689.8797413539759</v>
+        <v>689.8797413539764</v>
       </c>
       <c r="N23" t="n">
-        <v>701.0427168161472</v>
+        <v>701.0427168161477</v>
       </c>
       <c r="O23" t="n">
-        <v>661.9747582584821</v>
+        <v>661.9747582584827</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9801408463031</v>
+        <v>564.9801408463036</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.2765566002814</v>
+        <v>424.2765566002817</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7985067754042</v>
+        <v>246.7985067754044</v>
       </c>
       <c r="S23" t="n">
-        <v>89.52971521134299</v>
+        <v>89.52971521134306</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19874178113675</v>
+        <v>17.19874178113676</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3143116716141494</v>
+        <v>0.3143116716141497</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.102144629197701</v>
+        <v>2.102144629197702</v>
       </c>
       <c r="H24" t="n">
-        <v>20.30229155040938</v>
+        <v>20.30229155040939</v>
       </c>
       <c r="I24" t="n">
-        <v>72.37647078597348</v>
+        <v>72.37647078597354</v>
       </c>
       <c r="J24" t="n">
-        <v>198.6065677962617</v>
+        <v>198.6065677962619</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4502579525077</v>
+        <v>339.450257952508</v>
       </c>
       <c r="L24" t="n">
-        <v>456.4327625808429</v>
+        <v>456.4327625808433</v>
       </c>
       <c r="M24" t="n">
-        <v>532.6355053892595</v>
+        <v>532.6355053892598</v>
       </c>
       <c r="N24" t="n">
-        <v>546.732782310502</v>
+        <v>546.7327823105024</v>
       </c>
       <c r="O24" t="n">
-        <v>500.1536828951213</v>
+        <v>500.1536828951218</v>
       </c>
       <c r="P24" t="n">
-        <v>401.4174248509189</v>
+        <v>401.4174248509192</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.3369179305697</v>
+        <v>268.3369179305699</v>
       </c>
       <c r="R24" t="n">
-        <v>130.5173656619415</v>
+        <v>130.5173656619416</v>
       </c>
       <c r="S24" t="n">
-        <v>39.04641449408884</v>
+        <v>39.04641449408888</v>
       </c>
       <c r="T24" t="n">
-        <v>8.473118044880202</v>
+        <v>8.473118044880209</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382989887630067</v>
+        <v>0.1382989887630068</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762367441504543</v>
+        <v>1.762367441504545</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66904870719495</v>
+        <v>15.66904870719496</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99919542270028</v>
+        <v>52.99919542270032</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5993781143712</v>
+        <v>124.5993781143713</v>
       </c>
       <c r="K25" t="n">
-        <v>204.7550536584369</v>
+        <v>204.755053658437</v>
       </c>
       <c r="L25" t="n">
-        <v>262.0159739851392</v>
+        <v>262.0159739851393</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2591072169349</v>
+        <v>276.2591072169351</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6902831167818</v>
+        <v>269.690283116782</v>
       </c>
       <c r="O25" t="n">
-        <v>249.1026270955695</v>
+        <v>249.1026270955697</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1503312888767</v>
+        <v>213.1503312888769</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5742409427123</v>
+        <v>147.5742409427124</v>
       </c>
       <c r="R25" t="n">
-        <v>79.24244877892244</v>
+        <v>79.24244877892251</v>
       </c>
       <c r="S25" t="n">
-        <v>30.71325804876553</v>
+        <v>30.71325804876555</v>
       </c>
       <c r="T25" t="n">
-        <v>7.530115431883047</v>
+        <v>7.530115431883052</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0961291331729752</v>
+        <v>0.09612913317297528</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>161.9650023807739</v>
+        <v>152.414223456582</v>
       </c>
       <c r="K11" t="n">
-        <v>603.8258527522892</v>
+        <v>603.8258527522896</v>
       </c>
       <c r="L11" t="n">
-        <v>801.9040385585874</v>
+        <v>801.9040385585879</v>
       </c>
       <c r="M11" t="n">
-        <v>909.0470416195357</v>
+        <v>909.0470416195362</v>
       </c>
       <c r="N11" t="n">
-        <v>908.9765776315404</v>
+        <v>908.976577631541</v>
       </c>
       <c r="O11" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995413</v>
       </c>
       <c r="P11" t="n">
-        <v>333.7471450910336</v>
+        <v>333.747145091034</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9708667258319</v>
+        <v>211.5216456500212</v>
       </c>
       <c r="R11" t="n">
-        <v>31.21296896127208</v>
+        <v>31.21296896127228</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.76894112959505</v>
+        <v>197.8599764700041</v>
       </c>
       <c r="K12" t="n">
-        <v>201.6088189781487</v>
+        <v>201.608818978149</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009691</v>
       </c>
       <c r="M12" t="n">
-        <v>770.0231334440863</v>
+        <v>643.9320981036748</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271692</v>
       </c>
       <c r="O12" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506774</v>
       </c>
       <c r="P12" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365889</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3551438445482</v>
+        <v>128.3551438445484</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769853</v>
       </c>
       <c r="K13" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L13" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787757</v>
       </c>
       <c r="N13" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960107</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>161.9650023807747</v>
+        <v>152.414223456582</v>
       </c>
       <c r="K14" t="n">
-        <v>603.8258527522892</v>
+        <v>603.8258527522896</v>
       </c>
       <c r="L14" t="n">
-        <v>801.9040385585874</v>
+        <v>801.9040385585879</v>
       </c>
       <c r="M14" t="n">
-        <v>909.0470416195357</v>
+        <v>909.0470416195362</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9765776315404</v>
+        <v>908.976577631541</v>
       </c>
       <c r="O14" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995413</v>
       </c>
       <c r="P14" t="n">
-        <v>333.7471450910336</v>
+        <v>343.2979240152226</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9708667258319</v>
+        <v>201.9708667258322</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21296896127208</v>
+        <v>31.21296896127228</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>197.8599764700039</v>
+        <v>197.8599764700041</v>
       </c>
       <c r="K15" t="n">
-        <v>244.9621578787358</v>
+        <v>201.608818978149</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009691</v>
       </c>
       <c r="M15" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672415</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271692</v>
       </c>
       <c r="O15" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506774</v>
       </c>
       <c r="P15" t="n">
-        <v>267.4430174365887</v>
+        <v>520.8736440730222</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.4324315803973</v>
+        <v>128.3551438445484</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769853</v>
       </c>
       <c r="K16" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L16" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787757</v>
       </c>
       <c r="N16" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960107</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4288905537717</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.4142234565818</v>
+        <v>321.5108386286558</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6804401811245</v>
+        <v>378.5635966314234</v>
       </c>
       <c r="L17" t="n">
-        <v>801.9040385585874</v>
+        <v>801.9040385585879</v>
       </c>
       <c r="M17" t="n">
-        <v>909.0470416195357</v>
+        <v>909.0470416195361</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9765776315404</v>
+        <v>908.976577631541</v>
       </c>
       <c r="O17" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995413</v>
       </c>
       <c r="P17" t="n">
-        <v>655.5458532625162</v>
+        <v>333.7471450910339</v>
       </c>
       <c r="Q17" t="n">
-        <v>213.8683500497075</v>
+        <v>201.9708667258322</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21296896127208</v>
+        <v>96.92938883425469</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>197.8599764700039</v>
+        <v>197.859976470004</v>
       </c>
       <c r="K18" t="n">
-        <v>214.6026263694373</v>
+        <v>244.9621578787331</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009691</v>
       </c>
       <c r="M18" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672415</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271692</v>
       </c>
       <c r="O18" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506773</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365889</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.4324315803973</v>
+        <v>338.4324315803975</v>
       </c>
       <c r="R18" t="n">
-        <v>30.35953150929838</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769852</v>
       </c>
       <c r="K19" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L19" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787756</v>
       </c>
       <c r="N19" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960105</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.4142234565818</v>
+        <v>321.5108386286558</v>
       </c>
       <c r="K20" t="n">
-        <v>279.6804401811245</v>
+        <v>279.6804401811249</v>
       </c>
       <c r="L20" t="n">
-        <v>801.9040385585874</v>
+        <v>801.9040385585879</v>
       </c>
       <c r="M20" t="n">
-        <v>909.0470416195357</v>
+        <v>909.0470416195362</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9765776315404</v>
+        <v>908.976577631541</v>
       </c>
       <c r="O20" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995413</v>
       </c>
       <c r="P20" t="n">
-        <v>655.5458532625162</v>
+        <v>333.747145091034</v>
       </c>
       <c r="Q20" t="n">
-        <v>213.8683500497075</v>
+        <v>300.8540231761303</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21296896127208</v>
+        <v>96.92938883425472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>197.8599764700039</v>
+        <v>197.8599764700041</v>
       </c>
       <c r="K21" t="n">
-        <v>201.6088189781487</v>
+        <v>214.6026263694346</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8783828009687</v>
+        <v>317.8783828009691</v>
       </c>
       <c r="M21" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672415</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271692</v>
       </c>
       <c r="O21" t="n">
-        <v>370.5512458419655</v>
+        <v>357.5574384506774</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365889</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.4324315803973</v>
+        <v>338.4324315803975</v>
       </c>
       <c r="R21" t="n">
-        <v>30.35953150929838</v>
+        <v>30.35953150929849</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769853</v>
       </c>
       <c r="K22" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L22" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787757</v>
       </c>
       <c r="N22" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960107</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>321.5108386286556</v>
+        <v>321.5108386286558</v>
       </c>
       <c r="K23" t="n">
-        <v>378.5635966314263</v>
+        <v>378.5635966314234</v>
       </c>
       <c r="L23" t="n">
-        <v>801.9040385585874</v>
+        <v>801.9040385585879</v>
       </c>
       <c r="M23" t="n">
-        <v>909.0470416195357</v>
+        <v>909.0470416195362</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9765776315404</v>
+        <v>908.976577631541</v>
       </c>
       <c r="O23" t="n">
-        <v>812.6767280995407</v>
+        <v>812.6767280995413</v>
       </c>
       <c r="P23" t="n">
-        <v>333.7471450910336</v>
+        <v>333.747145091034</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9708667258319</v>
+        <v>201.9708667258322</v>
       </c>
       <c r="R23" t="n">
-        <v>96.92938883425452</v>
+        <v>96.92938883425472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>197.8599764700039</v>
+        <v>197.8599764700041</v>
       </c>
       <c r="K24" t="n">
-        <v>201.6088189781487</v>
+        <v>244.9621578787331</v>
       </c>
       <c r="L24" t="n">
-        <v>330.8721901922574</v>
+        <v>317.8783828009691</v>
       </c>
       <c r="M24" t="n">
-        <v>390.5014714672412</v>
+        <v>390.5014714672415</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3910702271687</v>
+        <v>415.3910702271692</v>
       </c>
       <c r="O24" t="n">
-        <v>357.5574384506769</v>
+        <v>357.5574384506774</v>
       </c>
       <c r="P24" t="n">
-        <v>267.4430174365887</v>
+        <v>267.4430174365889</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.4324315803973</v>
+        <v>338.4324315803975</v>
       </c>
       <c r="R24" t="n">
-        <v>30.35953150929838</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.24019799769843</v>
+        <v>31.24019799769853</v>
       </c>
       <c r="K25" t="n">
-        <v>182.485561832554</v>
+        <v>182.4855618325542</v>
       </c>
       <c r="L25" t="n">
-        <v>289.6059992454553</v>
+        <v>289.6059992454555</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8429841787755</v>
+        <v>315.8429841787757</v>
       </c>
       <c r="N25" t="n">
-        <v>313.8224554960104</v>
+        <v>313.8224554960107</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6877550096092</v>
+        <v>273.6877550096094</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4288905537702</v>
+        <v>210.4288905537703</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.41219769101788</v>
+        <v>61.41219769101799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.49863127619666</v>
+        <v>92.49863127620223</v>
       </c>
       <c r="K37" t="n">
-        <v>252.96787420745</v>
+        <v>252.9678742074556</v>
       </c>
       <c r="L37" t="n">
-        <v>366.6775868333286</v>
+        <v>366.6775868333341</v>
       </c>
       <c r="M37" t="n">
-        <v>394.5535940566143</v>
+        <v>394.5535940566198</v>
       </c>
       <c r="N37" t="n">
-        <v>391.7771608306705</v>
+        <v>391.7771608306761</v>
       </c>
       <c r="O37" t="n">
-        <v>349.2733448857702</v>
+        <v>349.2733448857758</v>
       </c>
       <c r="P37" t="n">
-        <v>281.8772858082409</v>
+        <v>281.8772858082464</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3144532010241</v>
+        <v>125.3144532010297</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37783,7 +37783,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
